--- a/base_de_datos.xlsx
+++ b/base_de_datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\compu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\Lenguajes_de_Programacion\Estructura_de_datos_Proyecto\proyecto_estruct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46683761-3775-4E3C-9CB0-4AFFA8CE11F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1758FB0-A75F-4D87-BFC8-3AFE33E2FF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{16A2D6D0-0F7F-466F-AE4E-54D7B2961DD9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{16A2D6D0-0F7F-466F-AE4E-54D7B2961DD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -154,8 +152,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -495,7 +493,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -626,7 +624,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="1">
-        <v>1000000</v>
+        <v>80000</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
